--- a/Discover The World/African/非洲数据.xlsx
+++ b/Discover The World/African/非洲数据.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colorfully Zhang\Desktop\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Rang\Discover The World\African\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{9931DC0A-A3D1-400B-ABB4-FDAAB4325965}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{F9E34CB0-3AD1-48D4-9064-70CAC839FD8F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8910" xr2:uid="{0F7E2019-6B1C-438E-B184-AE9C1E37B021}"/>
   </bookViews>
@@ -462,7 +462,7 @@
     <numFmt numFmtId="180" formatCode="0.0_);[Red]\(0.0\)"/>
     <numFmt numFmtId="181" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -483,6 +483,22 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -512,7 +528,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -533,6 +549,27 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="181" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -581,7 +618,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{7914E716-9F6A-40BC-8772-024AA216E759}" name="表1" displayName="表1" ref="A1:I64" totalsRowShown="0">
   <autoFilter ref="A1:I64" xr:uid="{BC74BFDC-C22C-49BB-BB43-DA6A959E9760}"/>
   <sortState ref="A2:I64">
-    <sortCondition ref="C1:C64"/>
+    <sortCondition ref="G1:G64"/>
   </sortState>
   <tableColumns count="9">
     <tableColumn id="1" xr3:uid="{F0BA881C-455E-449D-94AD-BF686A367E0F}" name="国家" dataDxfId="6"/>
@@ -897,8 +934,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7CB2BD3-D5BD-4DBE-978A-B1B2897CE308}">
   <dimension ref="A1:I64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A26" sqref="A25:XFD26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -944,1167 +981,1149 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
-        <v>121</v>
+        <v>35</v>
       </c>
       <c r="B2" s="1">
-        <v>0.06</v>
+        <v>57.31</v>
       </c>
       <c r="C2" s="2">
-        <v>199</v>
+        <v>3547</v>
       </c>
       <c r="D2" s="3">
-        <v>0.28299999999999997</v>
+        <v>0.58199999999999996</v>
       </c>
       <c r="E2" s="5">
-        <v>637657</v>
+        <v>266000</v>
       </c>
       <c r="F2" s="5">
-        <v>7753310</v>
+        <v>256177</v>
       </c>
       <c r="G2" s="4">
-        <v>12.2</v>
+        <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I2" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1">
-        <v>8.5399999999999991</v>
+        <v>6.37</v>
       </c>
       <c r="C3" s="2">
-        <v>264</v>
+        <v>4547</v>
       </c>
       <c r="D3" s="3">
-        <v>0.433</v>
+        <v>0.628</v>
       </c>
       <c r="E3" s="5">
-        <v>2345410</v>
+        <v>825418</v>
       </c>
       <c r="F3" s="5">
-        <v>55225478</v>
+        <v>1820916</v>
       </c>
       <c r="G3" s="4">
-        <v>23.5</v>
+        <v>2.2000000000000002</v>
       </c>
       <c r="H3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I3" t="s">
-        <v>79</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1">
-        <v>0.63</v>
+        <v>10.33</v>
       </c>
       <c r="C4" s="2">
-        <v>383</v>
+        <v>12057</v>
       </c>
       <c r="D4" s="3">
-        <v>0.43</v>
+        <v>0.69799999999999995</v>
       </c>
       <c r="E4" s="5">
-        <v>111370</v>
+        <v>600370</v>
       </c>
       <c r="F4" s="5">
-        <v>3288198</v>
+        <v>1591232</v>
       </c>
       <c r="G4" s="4">
-        <v>29.5</v>
+        <v>2.7</v>
       </c>
       <c r="H4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
-        <v>131</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1">
-        <v>5.01</v>
+        <v>2.66</v>
       </c>
       <c r="C5" s="2">
-        <v>538</v>
+        <v>1691</v>
       </c>
       <c r="D5" s="3">
-        <v>0.50900000000000001</v>
+        <v>0.50600000000000001</v>
       </c>
       <c r="E5" s="5">
-        <v>390580</v>
+        <v>1030700</v>
       </c>
       <c r="F5" s="5">
-        <v>11376676</v>
+        <v>2828858</v>
       </c>
       <c r="G5" s="4">
-        <v>29.1</v>
+        <v>2.7</v>
       </c>
       <c r="H5" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I5" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B6" s="1">
-        <v>0.3</v>
+        <v>50.32</v>
       </c>
       <c r="C6" s="2">
-        <v>569</v>
+        <v>10727</v>
       </c>
       <c r="D6" s="3">
-        <v>0.42</v>
+        <v>0.72399999999999998</v>
       </c>
       <c r="E6" s="5">
-        <v>36120</v>
+        <v>1759540</v>
       </c>
       <c r="F6" s="5">
-        <v>1345479</v>
+        <v>5368585</v>
       </c>
       <c r="G6" s="4">
-        <v>37.299999999999997</v>
+        <v>3.1</v>
       </c>
       <c r="H6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
-        <v>119</v>
+        <v>22</v>
       </c>
       <c r="B7" s="1">
-        <v>13.32</v>
+        <v>9.5500000000000007</v>
       </c>
       <c r="C7" s="2">
-        <v>591</v>
+        <v>12742</v>
       </c>
       <c r="D7" s="3">
-        <v>0.442</v>
+        <v>0.68400000000000005</v>
       </c>
       <c r="E7" s="5">
-        <v>1127127</v>
+        <v>267667</v>
       </c>
       <c r="F7" s="5">
-        <v>67673031</v>
+        <v>1233353</v>
       </c>
       <c r="G7" s="4">
-        <v>60</v>
+        <v>4.5999999999999996</v>
       </c>
       <c r="H7" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I7" t="s">
-        <v>59</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B8" s="1">
-        <v>3.54</v>
+        <v>1.49</v>
       </c>
       <c r="C8" s="2">
-        <v>613</v>
+        <v>675</v>
       </c>
       <c r="D8" s="3">
-        <v>0.34799999999999998</v>
+        <v>0.35</v>
       </c>
       <c r="E8" s="5">
-        <v>1267000</v>
+        <v>622984</v>
       </c>
       <c r="F8" s="5">
-        <v>10639744</v>
+        <v>3642739</v>
       </c>
       <c r="G8" s="4">
-        <v>8.4</v>
+        <v>5.8</v>
       </c>
       <c r="H8" t="s">
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1">
-        <v>1.49</v>
+        <v>6.54</v>
       </c>
       <c r="C9" s="2">
-        <v>675</v>
+        <v>1749</v>
       </c>
       <c r="D9" s="3">
-        <v>0.35</v>
+        <v>0.39200000000000002</v>
       </c>
       <c r="E9" s="5">
-        <v>622984</v>
+        <v>1284000</v>
       </c>
       <c r="F9" s="5">
-        <v>3642739</v>
+        <v>8997237</v>
       </c>
       <c r="G9" s="4">
-        <v>5.8</v>
+        <v>7</v>
       </c>
       <c r="H9" t="s">
         <v>3</v>
       </c>
       <c r="I9" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="B10" s="1">
-        <v>1.0900000000000001</v>
+        <v>3.54</v>
       </c>
       <c r="C10" s="2">
-        <v>689</v>
+        <v>613</v>
       </c>
       <c r="D10" s="3">
-        <v>0.39100000000000001</v>
+        <v>0.34799999999999998</v>
       </c>
       <c r="E10" s="5">
-        <v>121320</v>
+        <v>1267000</v>
       </c>
       <c r="F10" s="5">
-        <v>4465651</v>
+        <v>10639744</v>
       </c>
       <c r="G10" s="4">
-        <v>36.799999999999997</v>
+        <v>8.4</v>
       </c>
       <c r="H10" t="s">
         <v>3</v>
       </c>
       <c r="I10" t="s">
-        <v>58</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B11" s="1">
-        <v>2.23</v>
+        <v>44.03</v>
       </c>
       <c r="C11" s="2">
-        <v>691</v>
+        <v>3533</v>
       </c>
       <c r="D11" s="3">
-        <v>0.44500000000000001</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="E11" s="5">
-        <v>118480</v>
+        <v>1246700</v>
       </c>
       <c r="F11" s="5">
-        <v>10701824</v>
+        <v>10593171</v>
       </c>
       <c r="G11" s="4">
-        <v>90.3</v>
+        <v>8.5</v>
       </c>
       <c r="H11" t="s">
         <v>3</v>
       </c>
       <c r="I11" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B12" s="1">
-        <v>0.81</v>
+        <v>7.39</v>
       </c>
       <c r="C12" s="2">
-        <v>699</v>
+        <v>3621</v>
       </c>
       <c r="D12" s="3">
-        <v>0.4</v>
+        <v>0.59099999999999997</v>
       </c>
       <c r="E12" s="5">
-        <v>27830</v>
+        <v>342000</v>
       </c>
       <c r="F12" s="5">
-        <v>6373002</v>
+        <v>2958448</v>
       </c>
       <c r="G12" s="4">
-        <v>229</v>
+        <v>8.6999999999999993</v>
       </c>
       <c r="H12" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>56</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" s="1">
-        <v>0.51</v>
+        <v>5.93</v>
       </c>
       <c r="C13" s="2">
-        <v>726</v>
+        <v>1027</v>
       </c>
       <c r="D13" s="3">
-        <v>0.441</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="E13" s="5">
-        <v>11300</v>
+        <v>1240000</v>
       </c>
       <c r="F13" s="5">
-        <v>1455842</v>
+        <v>11340480</v>
       </c>
       <c r="G13" s="4">
-        <v>128.80000000000001</v>
+        <v>9.1</v>
       </c>
       <c r="H13" t="s">
         <v>3</v>
       </c>
       <c r="I13" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
       <c r="B14" s="1">
-        <v>7.61</v>
+        <v>0.06</v>
       </c>
       <c r="C14" s="2">
-        <v>743</v>
+        <v>199</v>
       </c>
       <c r="D14" s="3">
-        <v>0.41599999999999998</v>
+        <v>0.28299999999999997</v>
       </c>
       <c r="E14" s="5">
-        <v>801590</v>
+        <v>637657</v>
       </c>
       <c r="F14" s="5">
-        <v>19607519</v>
+        <v>7753310</v>
       </c>
       <c r="G14" s="4">
-        <v>24.5</v>
+        <v>12.2</v>
       </c>
       <c r="H14" t="s">
         <v>3</v>
       </c>
       <c r="I14" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
-        <v>43</v>
+        <v>122</v>
       </c>
       <c r="B15" s="1">
-        <v>1.44</v>
+        <v>10.91</v>
       </c>
       <c r="C15" s="2">
-        <v>790</v>
+        <v>1175</v>
       </c>
       <c r="D15" s="3">
-        <v>0.41299999999999998</v>
+        <v>0.58599999999999997</v>
       </c>
       <c r="E15" s="5">
-        <v>71740</v>
+        <v>752614</v>
       </c>
       <c r="F15" s="5">
-        <v>5614743</v>
+        <v>9959037</v>
       </c>
       <c r="G15" s="4">
-        <v>78.3</v>
+        <v>13.2</v>
       </c>
       <c r="H15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I15" t="s">
-        <v>115</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
-        <v>39</v>
+        <v>1</v>
       </c>
       <c r="B16" s="1">
-        <v>2.4900000000000002</v>
+        <v>114.73</v>
       </c>
       <c r="C16" s="2">
-        <v>813</v>
+        <v>5985</v>
       </c>
       <c r="D16" s="3">
-        <v>0.48299999999999998</v>
+        <v>0.73599999999999999</v>
       </c>
       <c r="E16" s="5">
-        <v>26338</v>
+        <v>2381740</v>
       </c>
       <c r="F16" s="5">
-        <v>7398074</v>
+        <v>32277942</v>
       </c>
       <c r="G16" s="4">
-        <v>280.89999999999998</v>
+        <v>13.6</v>
       </c>
       <c r="H16" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I16" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B17" s="1">
-        <v>2.21</v>
+        <v>37.57</v>
       </c>
       <c r="C17" s="2">
-        <v>888</v>
+        <v>2249</v>
       </c>
       <c r="D17" s="3">
-        <v>0.48399999999999999</v>
+        <v>0.46700000000000003</v>
       </c>
       <c r="E17" s="5">
-        <v>56785</v>
+        <v>589745</v>
       </c>
       <c r="F17" s="5">
-        <v>5285501</v>
+        <v>8500000</v>
       </c>
       <c r="G17" s="4">
-        <v>93.1</v>
+        <v>14</v>
       </c>
       <c r="H17" t="s">
         <v>3</v>
       </c>
       <c r="I17" t="s">
-        <v>116</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="B18" s="1">
-        <v>3.32</v>
+        <v>37.57</v>
       </c>
       <c r="C18" s="2">
-        <v>946</v>
+        <v>2249</v>
       </c>
       <c r="D18" s="3">
-        <v>0.41099999999999998</v>
+        <v>0.47899999999999998</v>
       </c>
       <c r="E18" s="5">
-        <v>245857</v>
+        <v>1886068</v>
       </c>
       <c r="F18" s="5">
-        <v>7775065</v>
+        <v>31894000</v>
       </c>
       <c r="G18" s="4">
-        <v>31.6</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H18" t="s">
         <v>3</v>
       </c>
       <c r="I18" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1">
-        <v>5.5</v>
-      </c>
-      <c r="C19" s="2">
-        <v>988</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.51</v>
-      </c>
+        <v>124</v>
+      </c>
+      <c r="B19" s="1"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3"/>
       <c r="E19" s="5">
-        <v>587040</v>
+        <v>410</v>
       </c>
       <c r="F19" s="5">
-        <v>16473477</v>
+        <v>7317</v>
       </c>
       <c r="G19" s="4">
-        <v>28.1</v>
-      </c>
-      <c r="H19" t="s">
-        <v>3</v>
+        <v>17.8</v>
       </c>
       <c r="I19" t="s">
-        <v>61</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="B20" s="1">
-        <v>9.32</v>
-      </c>
-      <c r="C20" s="2">
-        <v>991</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.48299999999999998</v>
-      </c>
-      <c r="E20" s="5">
-        <v>236040</v>
-      </c>
-      <c r="F20" s="5">
-        <v>24699073</v>
-      </c>
-      <c r="G20" s="4">
-        <v>104.6</v>
-      </c>
-      <c r="H20" t="s">
-        <v>3</v>
-      </c>
-      <c r="I20" t="s">
-        <v>71</v>
+      <c r="A20" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="8">
+        <v>8.56</v>
+      </c>
+      <c r="C20" s="9">
+        <v>11999</v>
+      </c>
+      <c r="D20" s="10">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="E20" s="11">
+        <v>28051</v>
+      </c>
+      <c r="F20" s="11">
+        <v>498144</v>
+      </c>
+      <c r="G20" s="12">
+        <v>17.8</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="I20" s="13" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1">
-        <v>12.78</v>
+        <v>0.76</v>
       </c>
       <c r="C21" s="2">
-        <v>1018</v>
+        <v>1964</v>
       </c>
       <c r="D21" s="3">
-        <v>0.52100000000000002</v>
+        <v>0.47</v>
       </c>
       <c r="E21" s="5">
-        <v>945087</v>
+        <v>23000</v>
       </c>
       <c r="F21" s="5">
-        <v>37187939</v>
+        <v>472810</v>
       </c>
       <c r="G21" s="4">
-        <v>39.299999999999997</v>
+        <v>20.6</v>
       </c>
       <c r="H21" t="s">
         <v>3</v>
       </c>
       <c r="I21" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B22" s="1">
-        <v>5.93</v>
+        <v>8.5399999999999991</v>
       </c>
       <c r="C22" s="2">
-        <v>1027</v>
+        <v>264</v>
       </c>
       <c r="D22" s="3">
-        <v>0.41899999999999998</v>
+        <v>0.433</v>
       </c>
       <c r="E22" s="5">
-        <v>1240000</v>
+        <v>2345410</v>
       </c>
       <c r="F22" s="5">
-        <v>11340480</v>
+        <v>55225478</v>
       </c>
       <c r="G22" s="4">
-        <v>9.1</v>
+        <v>23.5</v>
       </c>
       <c r="H22" t="s">
         <v>3</v>
       </c>
       <c r="I22" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="B23" s="1">
-        <v>0.4</v>
+        <v>7.61</v>
       </c>
       <c r="C23" s="2">
-        <v>1063</v>
+        <v>743</v>
       </c>
       <c r="D23" s="3">
-        <v>0.503</v>
+        <v>0.41599999999999998</v>
       </c>
       <c r="E23" s="5">
-        <v>2170</v>
+        <v>801590</v>
       </c>
       <c r="F23" s="5">
-        <v>614382</v>
+        <v>19607519</v>
       </c>
       <c r="G23" s="4">
-        <v>283.10000000000002</v>
+        <v>24.5</v>
       </c>
       <c r="H23" t="s">
         <v>3</v>
       </c>
       <c r="I23" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1">
-        <v>6.21</v>
+        <v>5.5</v>
       </c>
       <c r="C24" s="2">
-        <v>1140</v>
+        <v>988</v>
       </c>
       <c r="D24" s="3">
-        <v>0.40200000000000002</v>
+        <v>0.51</v>
       </c>
       <c r="E24" s="5">
-        <v>274200</v>
+        <v>587040</v>
       </c>
       <c r="F24" s="5">
-        <v>12603185</v>
+        <v>16473477</v>
       </c>
       <c r="G24" s="4">
-        <v>46</v>
+        <v>28.1</v>
       </c>
       <c r="H24" t="s">
         <v>3</v>
       </c>
       <c r="I24" t="s">
-        <v>101</v>
+        <v>61</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="B25" s="1">
-        <v>10.91</v>
+        <v>5.01</v>
       </c>
       <c r="C25" s="2">
-        <v>1175</v>
+        <v>538</v>
       </c>
       <c r="D25" s="3">
-        <v>0.58599999999999997</v>
+        <v>0.50900000000000001</v>
       </c>
       <c r="E25" s="5">
-        <v>752614</v>
+        <v>390580</v>
       </c>
       <c r="F25" s="5">
-        <v>9959037</v>
+        <v>11376676</v>
       </c>
       <c r="G25" s="4">
-        <v>13.2</v>
+        <v>29.1</v>
       </c>
       <c r="H25" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" s="1">
-        <v>12.91</v>
+        <v>0.63</v>
       </c>
       <c r="C26" s="2">
-        <v>1225</v>
+        <v>383</v>
       </c>
       <c r="D26" s="3">
-        <v>0.57899999999999996</v>
+        <v>0.43</v>
       </c>
       <c r="E26" s="5">
-        <v>239460</v>
+        <v>111370</v>
       </c>
       <c r="F26" s="5">
-        <v>20244154</v>
+        <v>3288198</v>
       </c>
       <c r="G26" s="4">
-        <v>84.5</v>
+        <v>29.5</v>
       </c>
       <c r="H26" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I26" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="1">
-        <v>21.19</v>
+        <v>3.32</v>
       </c>
       <c r="C27" s="2">
-        <v>1359</v>
+        <v>946</v>
       </c>
       <c r="D27" s="3">
-        <v>0.54800000000000004</v>
+        <v>0.41099999999999998</v>
       </c>
       <c r="E27" s="5">
-        <v>582650</v>
+        <v>245857</v>
       </c>
       <c r="F27" s="5">
-        <v>31138735</v>
+        <v>7775065</v>
       </c>
       <c r="G27" s="4">
-        <v>53.4</v>
+        <v>31.6</v>
       </c>
       <c r="H27" t="s">
         <v>3</v>
       </c>
       <c r="I27" t="s">
-        <v>60</v>
+        <v>106</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B28" s="1">
-        <v>4.78</v>
+        <v>18.32</v>
       </c>
       <c r="C28" s="2">
-        <v>1390</v>
+        <v>1995</v>
       </c>
       <c r="D28" s="3">
-        <v>0.48</v>
+        <v>0.51200000000000001</v>
       </c>
       <c r="E28" s="5">
-        <v>112620</v>
+        <v>475440</v>
       </c>
       <c r="F28" s="5">
-        <v>6787625</v>
+        <v>16184748</v>
       </c>
       <c r="G28" s="4">
-        <v>60.3</v>
+        <v>34</v>
       </c>
       <c r="H28" t="s">
         <v>3</v>
       </c>
       <c r="I28" t="s">
-        <v>100</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="B29" s="1">
-        <v>1.48</v>
+        <v>254.99</v>
       </c>
       <c r="C29" s="2">
-        <v>1415</v>
+        <v>8477</v>
       </c>
       <c r="D29" s="3">
-        <v>0.497</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="E29" s="5">
-        <v>30355</v>
+        <v>1219912</v>
       </c>
       <c r="F29" s="5">
-        <v>2207954</v>
+        <v>43647658</v>
       </c>
       <c r="G29" s="4">
-        <v>72.7</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="H29" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="B30" s="1">
-        <v>0.12</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="C30" s="2">
-        <v>1460</v>
+        <v>689</v>
       </c>
       <c r="D30" s="3">
-        <v>0.55500000000000005</v>
+        <v>0.39100000000000001</v>
       </c>
       <c r="E30" s="5">
-        <v>1001</v>
+        <v>121320</v>
       </c>
       <c r="F30" s="5">
-        <v>170372</v>
+        <v>4465651</v>
       </c>
       <c r="G30" s="4">
-        <v>170.2</v>
+        <v>36.799999999999997</v>
       </c>
       <c r="H30" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>58</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1">
-        <v>17.48</v>
+        <v>0.3</v>
       </c>
       <c r="C31" s="2">
-        <v>1575</v>
+        <v>569</v>
       </c>
       <c r="D31" s="3">
-        <v>0.46200000000000002</v>
+        <v>0.42</v>
       </c>
       <c r="E31" s="5">
-        <v>322460</v>
+        <v>36120</v>
       </c>
       <c r="F31" s="5">
-        <v>16804784</v>
+        <v>1345479</v>
       </c>
       <c r="G31" s="4">
-        <v>52.1</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="H31" t="s">
         <v>3</v>
       </c>
       <c r="I31" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="B32" s="1">
-        <v>8.94</v>
+        <v>12.78</v>
       </c>
       <c r="C32" s="2">
-        <v>1676</v>
+        <v>1018</v>
       </c>
       <c r="D32" s="3">
-        <v>0.46600000000000003</v>
+        <v>0.52100000000000002</v>
       </c>
       <c r="E32" s="5">
-        <v>196190</v>
+        <v>945087</v>
       </c>
       <c r="F32" s="5">
-        <v>10589571</v>
+        <v>37187939</v>
       </c>
       <c r="G32" s="4">
-        <v>54</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="H32" t="s">
         <v>3</v>
       </c>
       <c r="I32" t="s">
-        <v>114</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="B33" s="1">
-        <v>2.66</v>
+        <v>6.21</v>
       </c>
       <c r="C33" s="2">
-        <v>1691</v>
+        <v>1140</v>
       </c>
       <c r="D33" s="3">
-        <v>0.50600000000000001</v>
+        <v>0.40200000000000002</v>
       </c>
       <c r="E33" s="5">
-        <v>1030700</v>
+        <v>274200</v>
       </c>
       <c r="F33" s="5">
-        <v>2828858</v>
+        <v>12603185</v>
       </c>
       <c r="G33" s="4">
-        <v>2.7</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I33" t="s">
-        <v>110</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B34" s="1">
-        <v>6.54</v>
+        <v>17.48</v>
       </c>
       <c r="C34" s="2">
-        <v>1749</v>
+        <v>1575</v>
       </c>
       <c r="D34" s="3">
-        <v>0.39200000000000002</v>
+        <v>0.46200000000000002</v>
       </c>
       <c r="E34" s="5">
-        <v>1284000</v>
+        <v>322460</v>
       </c>
       <c r="F34" s="5">
-        <v>8997237</v>
+        <v>16804784</v>
       </c>
       <c r="G34" s="4">
-        <v>7</v>
+        <v>52.1</v>
       </c>
       <c r="H34" t="s">
         <v>3</v>
       </c>
       <c r="I34" t="s">
-        <v>77</v>
+        <v>103</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
-        <v>130</v>
+        <v>27</v>
       </c>
       <c r="B35" s="1">
-        <v>114.69</v>
+        <v>21.19</v>
       </c>
       <c r="C35" s="2">
-        <v>1892</v>
+        <v>1359</v>
       </c>
       <c r="D35" s="3">
-        <v>0.51400000000000001</v>
+        <v>0.54800000000000004</v>
       </c>
       <c r="E35" s="5">
-        <v>923768</v>
+        <v>582650</v>
       </c>
       <c r="F35" s="5">
-        <v>129934911</v>
+        <v>31138735</v>
       </c>
       <c r="G35" s="4">
-        <v>140.69999999999999</v>
+        <v>53.4</v>
       </c>
       <c r="H35" t="s">
         <v>3</v>
       </c>
       <c r="I35" t="s">
-        <v>112</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="B36" s="1">
-        <v>0.76</v>
+        <v>8.94</v>
       </c>
       <c r="C36" s="2">
-        <v>1964</v>
+        <v>1676</v>
       </c>
       <c r="D36" s="3">
-        <v>0.47</v>
+        <v>0.46600000000000003</v>
       </c>
       <c r="E36" s="5">
-        <v>23000</v>
+        <v>196190</v>
       </c>
       <c r="F36" s="5">
-        <v>472810</v>
+        <v>10589571</v>
       </c>
       <c r="G36" s="4">
-        <v>20.6</v>
+        <v>54</v>
       </c>
       <c r="H36" t="s">
         <v>3</v>
       </c>
       <c r="I36" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="B37" s="1">
-        <v>18.32</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1995</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.51200000000000001</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B37" s="1"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="3"/>
       <c r="E37" s="5">
-        <v>475440</v>
+        <v>60</v>
       </c>
       <c r="F37" s="5">
-        <v>16184748</v>
+        <v>3500</v>
       </c>
       <c r="G37" s="4">
-        <v>34</v>
-      </c>
-      <c r="H37" t="s">
-        <v>3</v>
+        <v>58.3</v>
       </c>
       <c r="I37" t="s">
-        <v>75</v>
+        <v>55</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B38" s="1">
-        <v>37.57</v>
+        <v>30.3</v>
       </c>
       <c r="C38" s="2">
-        <v>2249</v>
+        <v>6461</v>
       </c>
       <c r="D38" s="3">
-        <v>0.46700000000000003</v>
+        <v>0.72099999999999997</v>
       </c>
       <c r="E38" s="5">
-        <v>589745</v>
+        <v>163610</v>
       </c>
       <c r="F38" s="5">
-        <v>8500000</v>
+        <v>9815644</v>
       </c>
       <c r="G38" s="4">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="H38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I38" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>45</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1">
-        <v>37.57</v>
+        <v>13.32</v>
       </c>
       <c r="C39" s="2">
-        <v>2249</v>
+        <v>591</v>
       </c>
       <c r="D39" s="3">
-        <v>0.47899999999999998</v>
+        <v>0.442</v>
       </c>
       <c r="E39" s="5">
-        <v>1886068</v>
+        <v>1127127</v>
       </c>
       <c r="F39" s="5">
-        <v>31894000</v>
+        <v>67673031</v>
       </c>
       <c r="G39" s="4">
-        <v>16.899999999999999</v>
+        <v>60</v>
       </c>
       <c r="H39" t="s">
         <v>3</v>
       </c>
       <c r="I39" t="s">
-        <v>87</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1">
-        <v>1.1399999999999999</v>
+        <v>4.78</v>
       </c>
       <c r="C40" s="2">
-        <v>2831</v>
+        <v>1390</v>
       </c>
       <c r="D40" s="3">
-        <v>0.64600000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="E40" s="5">
-        <v>4033</v>
+        <v>112620</v>
       </c>
       <c r="F40" s="5">
-        <v>408760</v>
+        <v>6787625</v>
       </c>
       <c r="G40" s="4">
-        <v>101.4</v>
+        <v>60.3</v>
       </c>
       <c r="H40" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I40" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
-        <v>5</v>
+        <v>47</v>
       </c>
       <c r="B41" s="1">
-        <v>44.03</v>
+        <v>2.65</v>
       </c>
       <c r="C41" s="2">
-        <v>3533</v>
+        <v>4384</v>
       </c>
       <c r="D41" s="3">
-        <v>0.53200000000000003</v>
+        <v>0.53100000000000003</v>
       </c>
       <c r="E41" s="5">
-        <v>1246700</v>
+        <v>17363</v>
       </c>
       <c r="F41" s="5">
-        <v>10593171</v>
+        <v>1123605</v>
       </c>
       <c r="G41" s="4">
-        <v>8.5</v>
+        <v>64.7</v>
       </c>
       <c r="H41" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I41" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1">
         <v>57.31</v>
@@ -2113,557 +2132,575 @@
         <v>3547</v>
       </c>
       <c r="D42" s="3">
-        <v>0.58199999999999996</v>
+        <v>0.628</v>
       </c>
       <c r="E42" s="5">
-        <v>266000</v>
+        <v>446550</v>
       </c>
       <c r="F42" s="5">
-        <v>256177</v>
+        <v>31167783</v>
       </c>
       <c r="G42" s="4">
-        <v>1</v>
+        <v>69.8</v>
       </c>
       <c r="H42" t="s">
         <v>4</v>
       </c>
       <c r="I42" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="B43" s="1">
-        <v>57.31</v>
+        <v>107.48</v>
       </c>
       <c r="C43" s="2">
-        <v>3547</v>
+        <v>5051</v>
       </c>
       <c r="D43" s="3">
-        <v>0.628</v>
+        <v>0.69</v>
       </c>
       <c r="E43" s="5">
-        <v>446550</v>
+        <v>1001450</v>
       </c>
       <c r="F43" s="5">
-        <v>31167783</v>
+        <v>70712345</v>
       </c>
       <c r="G43" s="4">
-        <v>69.8</v>
+        <v>70.599999999999994</v>
       </c>
       <c r="H43" t="s">
         <v>4</v>
       </c>
       <c r="I43" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
-        <v>16</v>
+        <v>123</v>
       </c>
       <c r="B44" s="1">
-        <v>7.39</v>
+        <v>1.48</v>
       </c>
       <c r="C44" s="2">
-        <v>3621</v>
+        <v>1415</v>
       </c>
       <c r="D44" s="3">
-        <v>0.59099999999999997</v>
+        <v>0.497</v>
       </c>
       <c r="E44" s="5">
-        <v>342000</v>
+        <v>30355</v>
       </c>
       <c r="F44" s="5">
-        <v>2958448</v>
+        <v>2207954</v>
       </c>
       <c r="G44" s="4">
-        <v>8.6999999999999993</v>
+        <v>72.7</v>
       </c>
       <c r="H44" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1">
-        <v>2.65</v>
+        <v>1.44</v>
       </c>
       <c r="C45" s="2">
-        <v>4384</v>
+        <v>790</v>
       </c>
       <c r="D45" s="3">
-        <v>0.53100000000000003</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="E45" s="5">
-        <v>17363</v>
+        <v>71740</v>
       </c>
       <c r="F45" s="5">
-        <v>1123605</v>
+        <v>5614743</v>
       </c>
       <c r="G45" s="4">
-        <v>64.7</v>
+        <v>78.3</v>
       </c>
       <c r="H45" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I45" t="s">
-        <v>99</v>
+        <v>115</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B46" s="1">
-        <v>6.37</v>
+        <v>12.91</v>
       </c>
       <c r="C46" s="2">
-        <v>4547</v>
+        <v>1225</v>
       </c>
       <c r="D46" s="3">
-        <v>0.628</v>
+        <v>0.57899999999999996</v>
       </c>
       <c r="E46" s="5">
-        <v>825418</v>
+        <v>239460</v>
       </c>
       <c r="F46" s="5">
-        <v>1820916</v>
+        <v>20244154</v>
       </c>
       <c r="G46" s="4">
-        <v>2.2000000000000002</v>
+        <v>84.5</v>
       </c>
       <c r="H46" t="s">
         <v>4</v>
       </c>
       <c r="I46" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B47" s="1">
-        <v>107.48</v>
+        <v>2.23</v>
       </c>
       <c r="C47" s="2">
-        <v>5051</v>
+        <v>691</v>
       </c>
       <c r="D47" s="3">
-        <v>0.69</v>
+        <v>0.44500000000000001</v>
       </c>
       <c r="E47" s="5">
-        <v>1001450</v>
+        <v>118480</v>
       </c>
       <c r="F47" s="5">
-        <v>70712345</v>
+        <v>10701824</v>
       </c>
       <c r="G47" s="4">
-        <v>70.599999999999994</v>
+        <v>90.3</v>
       </c>
       <c r="H47" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I47" t="s">
-        <v>84</v>
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B48" s="1">
-        <v>114.73</v>
+        <v>2.21</v>
       </c>
       <c r="C48" s="2">
-        <v>5985</v>
+        <v>888</v>
       </c>
       <c r="D48" s="3">
-        <v>0.73599999999999999</v>
+        <v>0.48399999999999999</v>
       </c>
       <c r="E48" s="5">
-        <v>2381740</v>
+        <v>56785</v>
       </c>
       <c r="F48" s="5">
-        <v>32277942</v>
+        <v>5285501</v>
       </c>
       <c r="G48" s="4">
-        <v>13.6</v>
+        <v>93.1</v>
       </c>
       <c r="H48" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I48" t="s">
-        <v>83</v>
+        <v>116</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
-        <v>50</v>
+        <v>11</v>
       </c>
       <c r="B49" s="1">
-        <v>30.3</v>
+        <v>1.1399999999999999</v>
       </c>
       <c r="C49" s="2">
-        <v>6461</v>
+        <v>2831</v>
       </c>
       <c r="D49" s="3">
-        <v>0.72099999999999997</v>
+        <v>0.64600000000000002</v>
       </c>
       <c r="E49" s="5">
-        <v>163610</v>
+        <v>4033</v>
       </c>
       <c r="F49" s="5">
-        <v>9815644</v>
+        <v>408760</v>
       </c>
       <c r="G49" s="4">
-        <v>60</v>
+        <v>101.4</v>
       </c>
       <c r="H49" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I49" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="B50" s="1">
-        <v>254.99</v>
+        <v>9.32</v>
       </c>
       <c r="C50" s="2">
-        <v>8477</v>
+        <v>991</v>
       </c>
       <c r="D50" s="3">
-        <v>0.66600000000000004</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="E50" s="5">
-        <v>1219912</v>
+        <v>236040</v>
       </c>
       <c r="F50" s="5">
-        <v>43647658</v>
+        <v>24699073</v>
       </c>
       <c r="G50" s="4">
-        <v>35.799999999999997</v>
+        <v>104.6</v>
       </c>
       <c r="H50" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I50" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
-        <v>120</v>
+        <v>23</v>
       </c>
       <c r="B51" s="1">
-        <v>6.45</v>
+        <v>0.51</v>
       </c>
       <c r="C51" s="2">
-        <v>10155</v>
+        <v>726</v>
       </c>
       <c r="D51" s="3">
-        <v>0.77700000000000002</v>
+        <v>0.441</v>
       </c>
       <c r="E51" s="5">
-        <v>2040</v>
+        <v>11300</v>
       </c>
       <c r="F51" s="5">
-        <v>1200206</v>
+        <v>1455842</v>
       </c>
       <c r="G51" s="4">
-        <v>588.29999999999995</v>
+        <v>128.80000000000001</v>
       </c>
       <c r="H51" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I51" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
-        <v>29</v>
+        <v>130</v>
       </c>
       <c r="B52" s="1">
-        <v>50.32</v>
+        <v>114.69</v>
       </c>
       <c r="C52" s="2">
-        <v>10727</v>
+        <v>1892</v>
       </c>
       <c r="D52" s="3">
-        <v>0.72399999999999998</v>
+        <v>0.51400000000000001</v>
       </c>
       <c r="E52" s="5">
-        <v>1759540</v>
+        <v>923768</v>
       </c>
       <c r="F52" s="5">
-        <v>5368585</v>
+        <v>129934911</v>
       </c>
       <c r="G52" s="4">
-        <v>3.1</v>
+        <v>140.69999999999999</v>
       </c>
       <c r="H52" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I52" t="s">
-        <v>85</v>
+        <v>112</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B53" s="1">
-        <v>8.56</v>
+        <v>0.12</v>
       </c>
       <c r="C53" s="2">
-        <v>11999</v>
+        <v>1460</v>
       </c>
       <c r="D53" s="3">
-        <v>0.58699999999999997</v>
+        <v>0.55500000000000005</v>
       </c>
       <c r="E53" s="5">
-        <v>28051</v>
+        <v>1001</v>
       </c>
       <c r="F53" s="5">
-        <v>498144</v>
+        <v>170372</v>
       </c>
       <c r="G53" s="4">
-        <v>17.8</v>
+        <v>170.2</v>
       </c>
       <c r="H53" t="s">
         <v>4</v>
       </c>
       <c r="I53" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
-        <v>7</v>
+        <v>42</v>
       </c>
       <c r="B54" s="1">
-        <v>10.33</v>
+        <v>0.75</v>
       </c>
       <c r="C54" s="2">
-        <v>12057</v>
+        <v>13887</v>
       </c>
       <c r="D54" s="3">
-        <v>0.69799999999999995</v>
+        <v>0.77200000000000002</v>
       </c>
       <c r="E54" s="5">
-        <v>600370</v>
+        <v>455</v>
       </c>
       <c r="F54" s="5">
-        <v>1591232</v>
+        <v>80098</v>
       </c>
       <c r="G54" s="4">
-        <v>2.7</v>
+        <v>176</v>
       </c>
       <c r="H54" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I54" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="B55" s="1">
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="C55" s="2">
-        <v>12742</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.68400000000000005</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="B55" s="1"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="3"/>
       <c r="E55" s="5">
-        <v>267667</v>
+        <v>7492</v>
       </c>
       <c r="F55" s="5">
-        <v>1233353</v>
+        <v>1694477</v>
       </c>
       <c r="G55" s="4">
-        <v>4.5999999999999996</v>
-      </c>
-      <c r="H55" t="s">
-        <v>4</v>
+        <v>226.2</v>
       </c>
       <c r="I55" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
-        <v>42</v>
+        <v>9</v>
       </c>
       <c r="B56" s="1">
-        <v>0.75</v>
+        <v>0.81</v>
       </c>
       <c r="C56" s="2">
-        <v>13887</v>
+        <v>699</v>
       </c>
       <c r="D56" s="3">
-        <v>0.77200000000000002</v>
+        <v>0.4</v>
       </c>
       <c r="E56" s="5">
-        <v>455</v>
+        <v>27830</v>
       </c>
       <c r="F56" s="5">
-        <v>80098</v>
+        <v>6373002</v>
       </c>
       <c r="G56" s="4">
-        <v>176</v>
+        <v>229</v>
       </c>
       <c r="H56" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I56" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>125</v>
+        <v>39</v>
       </c>
       <c r="B57" s="1">
-        <v>15.98</v>
+        <v>2.4900000000000002</v>
       </c>
       <c r="C57" s="2">
-        <v>19233</v>
+        <v>813</v>
       </c>
       <c r="D57" s="3">
-        <v>0.87</v>
+        <v>0.48299999999999998</v>
       </c>
       <c r="E57" s="5">
-        <v>2512</v>
+        <v>26338</v>
       </c>
       <c r="F57" s="5">
-        <v>743981</v>
+        <v>7398074</v>
       </c>
       <c r="G57" s="4">
-        <v>296.2</v>
+        <v>280.89999999999998</v>
       </c>
       <c r="H57" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I57" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B58" s="1"/>
-      <c r="C58" s="2"/>
-      <c r="D58" s="3"/>
+        <v>14</v>
+      </c>
+      <c r="B58" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1063</v>
+      </c>
+      <c r="D58" s="3">
+        <v>0.503</v>
+      </c>
       <c r="E58" s="5">
-        <v>410</v>
+        <v>2170</v>
       </c>
       <c r="F58" s="5">
-        <v>7317</v>
+        <v>614382</v>
       </c>
       <c r="G58" s="4">
-        <v>17.8</v>
+        <v>283.10000000000002</v>
+      </c>
+      <c r="H58" t="s">
+        <v>3</v>
       </c>
       <c r="I58" t="s">
-        <v>113</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="B59" s="1"/>
-      <c r="C59" s="2"/>
-      <c r="D59" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="B59" s="1">
+        <v>15.98</v>
+      </c>
+      <c r="C59" s="2">
+        <v>19233</v>
+      </c>
+      <c r="D59" s="3">
+        <v>0.87</v>
+      </c>
       <c r="E59" s="5">
-        <v>60</v>
+        <v>2512</v>
       </c>
       <c r="F59" s="5">
-        <v>3500</v>
+        <v>743981</v>
       </c>
       <c r="G59" s="4">
-        <v>58.3</v>
+        <v>296.2</v>
+      </c>
+      <c r="H59" t="s">
+        <v>2</v>
       </c>
       <c r="I59" t="s">
-        <v>55</v>
+        <v>66</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B60" s="1"/>
       <c r="C60" s="2"/>
       <c r="D60" s="3"/>
       <c r="E60" s="5">
-        <v>7492</v>
+        <v>797</v>
       </c>
       <c r="F60" s="5">
-        <v>1694477</v>
+        <v>245000</v>
       </c>
       <c r="G60" s="4">
-        <v>226.2</v>
+        <v>307.39999999999998</v>
       </c>
       <c r="I60" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="B61" s="1"/>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
       <c r="E61" s="5">
-        <v>797</v>
+        <v>374</v>
       </c>
       <c r="F61" s="5">
-        <v>245000</v>
+        <v>170879</v>
       </c>
       <c r="G61" s="4">
-        <v>307.39999999999998</v>
+        <v>456.9</v>
       </c>
       <c r="I61" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="B62" s="1"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="3"/>
+        <v>120</v>
+      </c>
+      <c r="B62" s="1">
+        <v>6.45</v>
+      </c>
+      <c r="C62" s="2">
+        <v>10155</v>
+      </c>
+      <c r="D62" s="3">
+        <v>0.77700000000000002</v>
+      </c>
       <c r="E62" s="5">
-        <v>374</v>
+        <v>2040</v>
       </c>
       <c r="F62" s="5">
-        <v>170879</v>
+        <v>1200206</v>
       </c>
       <c r="G62" s="4">
-        <v>456.9</v>
+        <v>588.29999999999995</v>
+      </c>
+      <c r="H62" t="s">
+        <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
